--- a/data/trans_bre/Predimed_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R2-Provincia-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.4588211002978571</v>
+        <v>0.4588211002978682</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.00512617842913479</v>
+        <v>0.005126178429134915</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.731513253464316</v>
+        <v>-3.605243872101342</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.04109495033095073</v>
+        <v>-0.03941421010402727</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.448409142919977</v>
+        <v>4.694565152521284</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.05126404588715992</v>
+        <v>0.05318016040143182</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-1.006673986212925</v>
+        <v>-1.006673986212947</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.01079079349962265</v>
+        <v>-0.01079079349962289</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.230736349521019</v>
+        <v>-4.153931775764745</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04445253259483844</v>
+        <v>-0.04369957992923007</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.659249557391553</v>
+        <v>2.797239646271321</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02934564591182012</v>
+        <v>0.0307024525862957</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-2.024105099533258</v>
+        <v>-2.024105099533247</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.02802100162903083</v>
+        <v>-0.02802100162903068</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.906646924032663</v>
+        <v>-8.657992644507551</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1046709338110332</v>
+        <v>-0.1136510915980432</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.713765471926671</v>
+        <v>4.130431217471501</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.0678340122577709</v>
+        <v>0.05995048609860536</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.869320969429829</v>
+        <v>-8.243885173287124</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1168477738621522</v>
+        <v>-0.1278196016268466</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.516353442947716</v>
+        <v>9.460957264996118</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1757549881347471</v>
+        <v>0.1712478221721479</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-10.94939825826897</v>
+        <v>-10.94939825826898</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.1375090700383985</v>
+        <v>-0.1375090700383986</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.14877145002348</v>
+        <v>-17.3600943299302</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.2173136641041413</v>
+        <v>-0.2099629856123508</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.068668945638714</v>
+        <v>-4.282603040963723</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.05472550567724564</v>
+        <v>-0.05583069173227179</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>5.314373377304582</v>
+        <v>5.314373377304571</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.06243089699325102</v>
+        <v>0.06243089699325088</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8516049201632354</v>
+        <v>0.667019688222271</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01045464827828303</v>
+        <v>0.007625598302217133</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.10093375880104</v>
+        <v>10.09996948557815</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1261169004465485</v>
+        <v>0.1237016373010948</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.818245697469143</v>
+        <v>-3.881951076777683</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.06609740612213741</v>
+        <v>-0.05404610493641153</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.380271970926756</v>
+        <v>6.123573913310844</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.08033544642767222</v>
+        <v>0.09211267179785401</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>-1.980530983931239</v>
+        <v>-1.980530983931228</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.0205051318388792</v>
+        <v>-0.02050513183887909</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.881892306338366</v>
+        <v>-3.866681192799119</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03976946095717877</v>
+        <v>-0.03962505135973937</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1329037022182099</v>
+        <v>0.05994818187605407</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.001426893360413252</v>
+        <v>0.0005761126611562973</v>
       </c>
     </row>
     <row r="28">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-1.293834256495019</v>
+        <v>-1.293834256495041</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>-0.0157057785189728</v>
+        <v>-0.01570577851897306</v>
       </c>
     </row>
     <row r="29">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.217176485056857</v>
+        <v>-3.303756664424155</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.03851173349949046</v>
+        <v>-0.03975970820342617</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6253634411339126</v>
+        <v>0.4114633293175095</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.007703136049659003</v>
+        <v>0.004921857353856877</v>
       </c>
     </row>
     <row r="31">
